--- a/tables/gene_annotations/neutro_recruitment_chemokines.xlsx
+++ b/tables/gene_annotations/neutro_recruitment_chemokines.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">TME Ligand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(neutrophil) receptor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">tme_ligand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutrophil_receptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligand_alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receptor_alias</t>
   </si>
   <si>
     <t xml:space="preserve">CXCL1</t>
@@ -43,6 +49,9 @@
     <t xml:space="preserve">CXCL3</t>
   </si>
   <si>
+    <t xml:space="preserve">PF4</t>
+  </si>
+  <si>
     <t xml:space="preserve">CXCL4</t>
   </si>
   <si>
@@ -52,7 +61,10 @@
     <t xml:space="preserve">CXCL6</t>
   </si>
   <si>
-    <t xml:space="preserve">PPBP (CXCL7)</t>
+    <t xml:space="preserve">PPBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL7</t>
   </si>
   <si>
     <t xml:space="preserve">CXCL8</t>
@@ -167,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">IL6R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSF1</t>
   </si>
 </sst>
 </file>
@@ -359,13 +374,14 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,418 +391,579 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="2"/>
     </row>
   </sheetData>
